--- a/techniqo/data_new_ticker/PNCINFRA.xlsx
+++ b/techniqo/data_new_ticker/PNCINFRA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1314"/>
+  <dimension ref="A1:G1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46376,6 +46376,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>354414</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>171.55</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>171.45</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>151735</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/PNCINFRA.xlsx
+++ b/techniqo/data_new_ticker/PNCINFRA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1316"/>
+  <dimension ref="A1:G1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46426,6 +46426,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>170.25</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>299159</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>172.15</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>94456</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
